--- a/Optimisation/dataset2/fixed_cost.xlsx
+++ b/Optimisation/dataset2/fixed_cost.xlsx
@@ -1,43 +1,195 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/daniel_tan3_sg_ey_com/Documents/Documents/GitHub/WalmartSales/Optimisation/dataset2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_6A69D6BF87D0DB669FF83011598970B67873E36A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{78149E58-09E4-4E50-B098-CFDFDB73A76A}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="49830" yWindow="3165" windowWidth="17115" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>WTP</t>
+  </si>
+  <si>
+    <t>Fixed Cost</t>
+  </si>
+  <si>
+    <t>Ampang Intake</t>
+  </si>
+  <si>
+    <t>Batang Kali</t>
+  </si>
+  <si>
+    <t>Bernam River Head</t>
+  </si>
+  <si>
+    <t>WTP1</t>
+  </si>
+  <si>
+    <t>WTP2</t>
+  </si>
+  <si>
+    <t>WTP3</t>
+  </si>
+  <si>
+    <t>WTP4</t>
+  </si>
+  <si>
+    <t>WTP5</t>
+  </si>
+  <si>
+    <t>WTP6</t>
+  </si>
+  <si>
+    <t>WTP7</t>
+  </si>
+  <si>
+    <t>WTP8</t>
+  </si>
+  <si>
+    <t>WTP9</t>
+  </si>
+  <si>
+    <t>WTP10</t>
+  </si>
+  <si>
+    <t>WTP11</t>
+  </si>
+  <si>
+    <t>WTP12</t>
+  </si>
+  <si>
+    <t>WTP13</t>
+  </si>
+  <si>
+    <t>WTP14</t>
+  </si>
+  <si>
+    <t>WTP15</t>
+  </si>
+  <si>
+    <t>WTP16</t>
+  </si>
+  <si>
+    <t>WTP17</t>
+  </si>
+  <si>
+    <t>WTP18</t>
+  </si>
+  <si>
+    <t>WTP19</t>
+  </si>
+  <si>
+    <t>WTP20</t>
+  </si>
+  <si>
+    <t>WTP21</t>
+  </si>
+  <si>
+    <t>WTP22</t>
+  </si>
+  <si>
+    <t>WTP23</t>
+  </si>
+  <si>
+    <t>WTP24</t>
+  </si>
+  <si>
+    <t>WTP25</t>
+  </si>
+  <si>
+    <t>WTP26</t>
+  </si>
+  <si>
+    <t>WTP27</t>
+  </si>
+  <si>
+    <t>WTP28</t>
+  </si>
+  <si>
+    <t>WTP29</t>
+  </si>
+  <si>
+    <t>WTP30</t>
+  </si>
+  <si>
+    <t>WTP31</t>
+  </si>
+  <si>
+    <t>WTP32</t>
+  </si>
+  <si>
+    <t>WTP33</t>
+  </si>
+  <si>
+    <t>WTP34</t>
+  </si>
+  <si>
+    <t>WTP35</t>
+  </si>
+  <si>
+    <t>WTP36</t>
+  </si>
+  <si>
+    <t>WTP37</t>
+  </si>
+  <si>
+    <t>WTP38</t>
+  </si>
+  <si>
+    <t>WTP39</t>
+  </si>
+  <si>
+    <t>WTP40</t>
+  </si>
+  <si>
+    <t>Wangsa Maju</t>
+  </si>
+  <si>
+    <t>Sungai Tengi</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +198,60 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,478 +539,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>WTP</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fixed Cost</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Ampang Intake</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
         <v>11638</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Batang Kali</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
         <v>11011</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Bernam River Head</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
         <v>11602</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>WTP1</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
         <v>4899</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>WTP2</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
         <v>11773</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>WTP3</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
         <v>10594</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>WTP4</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
         <v>4662</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>WTP5</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
         <v>9644</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>WTP6</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
         <v>9661</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>WTP7</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
         <v>11931</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>WTP8</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
         <v>8040</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>WTP9</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
         <v>7638</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>WTP10</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
         <v>10621</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>WTP11</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
         <v>6590</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>WTP12</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
         <v>5056</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>WTP13</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
         <v>11160</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>WTP14</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
         <v>10870</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>WTP15</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
         <v>5757</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>WTP16</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
         <v>10543</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>WTP17</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
         <v>10039</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>WTP18</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
         <v>10984</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>WTP19</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
         <v>7235</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>WTP20</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
         <v>11950</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>WTP21</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
         <v>4479</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>WTP22</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3">
         <v>7583</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>WTP23</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
         <v>11240</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>WTP24</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3">
         <v>5026</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>WTP25</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
         <v>6735</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>WTP26</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
         <v>10511</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>WTP27</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
         <v>11986</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>WTP28</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
         <v>9014</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>WTP29</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3">
         <v>5940</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>WTP30</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3">
         <v>11148</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>WTP31</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
         <v>11415</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>WTP32</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
         <v>5898</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>WTP33</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3">
         <v>10563</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>WTP34</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3">
         <v>5225</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>WTP35</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3">
         <v>7940</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>WTP36</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>WTP37</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3">
         <v>7534</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>WTP38</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3">
         <v>4589</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>WTP39</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3">
         <v>6634</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>WTP40</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3">
         <v>8045</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Wangsa Maju</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3">
         <v>7515</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Sungai Tengi</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3">
         <v>6414</v>
       </c>
     </row>
